--- a/hisi音视频架构.xlsx
+++ b/hisi音视频架构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE771920-B47A-4046-8E5C-E9E2058E2738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796880E3-D028-4100-AC27-45359725034C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-            <a:t>hi_mpi_sys</a:t>
+            <a:t>hi_sys</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
         </a:p>
@@ -3433,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
